--- a/Santhosh L NestJS Time Sheet Attribute.xlsx
+++ b/Santhosh L NestJS Time Sheet Attribute.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TWINUser-29\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F667ADDD-7CF3-4E1D-988F-93A9AF392AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A4B4D-0AA3-4978-B5EF-8C56AF7C0B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="2280" windowWidth="15375" windowHeight="7815" xr2:uid="{153DFE0D-5E79-4259-B1B7-F4492A14A51B}"/>
+    <workbookView xWindow="960" yWindow="915" windowWidth="15375" windowHeight="7815" xr2:uid="{153DFE0D-5E79-4259-B1B7-F4492A14A51B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>Krion 6D Help Document Modification</t>
   </si>
 </sst>
 </file>
@@ -459,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2771FA37-AC94-41E9-A1C4-727A6DCFB6CD}">
   <dimension ref="A1:XFC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -664,6 +667,12 @@
       <c r="A18" s="3">
         <v>45602</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">

--- a/Santhosh L NestJS Time Sheet Attribute.xlsx
+++ b/Santhosh L NestJS Time Sheet Attribute.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TWINUser-29\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A4B4D-0AA3-4978-B5EF-8C56AF7C0B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC5566-ED9D-46BD-91E1-76AAC94D9B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="915" windowWidth="15375" windowHeight="7815" xr2:uid="{153DFE0D-5E79-4259-B1B7-F4492A14A51B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{153DFE0D-5E79-4259-B1B7-F4492A14A51B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2771FA37-AC94-41E9-A1C4-727A6DCFB6CD}">
   <dimension ref="A1:XFC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -678,6 +678,12 @@
       <c r="A19" s="3">
         <v>45603</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
